--- a/Doc/student.xlsx
+++ b/Doc/student.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\Assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B15D77-A4D8-47F6-AE8A-C4938EBBA731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522A84DA-2B16-49BF-B5A5-ED5523E5F552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="2820" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>dfbb</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>egfb</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>rb</t>
+  </si>
+  <si>
+    <t>br</t>
+  </si>
+  <si>
+    <t>rt</t>
   </si>
 </sst>
 </file>
@@ -369,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,6 +434,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Doc/student.xlsx
+++ b/Doc/student.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\Assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522A84DA-2B16-49BF-B5A5-ED5523E5F552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C328716-7506-4204-A583-F245315B23C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="2820" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22575" yWindow="1305" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -384,7 +384,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Doc/student.xlsx
+++ b/Doc/student.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\Assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C328716-7506-4204-A583-F245315B23C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EFE24C-7624-4285-8EB6-4B9F1EC21FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22575" yWindow="1305" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
   <si>
     <t>dfbb</t>
   </si>
@@ -64,16 +64,64 @@
   </si>
   <si>
     <t>rt</t>
+  </si>
+  <si>
+    <t>r3</t>
+  </si>
+  <si>
+    <t>r4</t>
+  </si>
+  <si>
+    <t>r5</t>
+  </si>
+  <si>
+    <t>r6</t>
+  </si>
+  <si>
+    <t>r7</t>
+  </si>
+  <si>
+    <t>r8</t>
+  </si>
+  <si>
+    <t>r9</t>
+  </si>
+  <si>
+    <t>r10</t>
+  </si>
+  <si>
+    <t>r11</t>
+  </si>
+  <si>
+    <t>r12</t>
+  </si>
+  <si>
+    <t>r13</t>
+  </si>
+  <si>
+    <t>r14</t>
+  </si>
+  <si>
+    <t>r15</t>
+  </si>
+  <si>
+    <t>r16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -381,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,7 +496,204 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Doc/student.xlsx
+++ b/Doc/student.xlsx
@@ -1,111 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\Assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EFE24C-7624-4285-8EB6-4B9F1EC21FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A6F9F9-75F4-40CF-B665-74FEDFD3240E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{21FCD31B-7798-427F-A334-20D83BC2FBC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
-  <si>
-    <t>dfbb</t>
-  </si>
-  <si>
-    <t>gnfnf</t>
-  </si>
-  <si>
-    <t>fxbbv</t>
-  </si>
-  <si>
-    <t>fbxbxv</t>
-  </si>
-  <si>
-    <t>Student_Rollno</t>
-  </si>
-  <si>
-    <t>Student_Name</t>
-  </si>
-  <si>
-    <t>Student_Course</t>
-  </si>
-  <si>
-    <t>Student_Enrollmentno</t>
-  </si>
-  <si>
-    <t>egfb</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>rb</t>
-  </si>
-  <si>
-    <t>br</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>r3</t>
-  </si>
-  <si>
-    <t>r4</t>
-  </si>
-  <si>
-    <t>r5</t>
-  </si>
-  <si>
-    <t>r6</t>
-  </si>
-  <si>
-    <t>r7</t>
-  </si>
-  <si>
-    <t>r8</t>
-  </si>
-  <si>
-    <t>r9</t>
-  </si>
-  <si>
-    <t>r10</t>
-  </si>
-  <si>
-    <t>r11</t>
-  </si>
-  <si>
-    <t>r12</t>
-  </si>
-  <si>
-    <t>r13</t>
-  </si>
-  <si>
-    <t>r14</t>
-  </si>
-  <si>
-    <t>r15</t>
-  </si>
-  <si>
-    <t>r16</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+  <si>
+    <t>Faculty ID</t>
+  </si>
+  <si>
+    <t>Faculty Name</t>
+  </si>
+  <si>
+    <t>Faculty Type</t>
+  </si>
+  <si>
+    <t>Zakie Khan</t>
+  </si>
+  <si>
+    <t>Visiting</t>
+  </si>
+  <si>
+    <t>FID103</t>
+  </si>
+  <si>
+    <t>Kartikey</t>
+  </si>
+  <si>
+    <t>FID123</t>
+  </si>
+  <si>
+    <t>FID104</t>
+  </si>
+  <si>
+    <t>FID105</t>
+  </si>
+  <si>
+    <t>FID106</t>
+  </si>
+  <si>
+    <t>FID107</t>
+  </si>
+  <si>
+    <t>FID108</t>
+  </si>
+  <si>
+    <t>FID109</t>
+  </si>
+  <si>
+    <t>FID110</t>
+  </si>
+  <si>
+    <t>FID111</t>
+  </si>
+  <si>
+    <t>FID112</t>
+  </si>
+  <si>
+    <t>FID113</t>
   </si>
 </sst>
 </file>
@@ -183,7 +165,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -195,7 +177,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -242,6 +224,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -277,6 +276,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,268 +444,161 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080D43D2-CAD2-42F8-843F-3BC53A94FB33}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/student.xlsx
+++ b/Doc/student.xlsx
@@ -1,100 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\Assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A6F9F9-75F4-40CF-B665-74FEDFD3240E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589DE72D-F37C-4EE0-9963-A1AEFF16D38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{21FCD31B-7798-427F-A334-20D83BC2FBC0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
-  <si>
-    <t>Faculty ID</t>
-  </si>
-  <si>
-    <t>Faculty Name</t>
-  </si>
-  <si>
-    <t>Faculty Type</t>
-  </si>
-  <si>
-    <t>Zakie Khan</t>
-  </si>
-  <si>
-    <t>Visiting</t>
-  </si>
-  <si>
-    <t>FID103</t>
-  </si>
-  <si>
-    <t>Kartikey</t>
-  </si>
-  <si>
-    <t>FID123</t>
-  </si>
-  <si>
-    <t>FID104</t>
-  </si>
-  <si>
-    <t>FID105</t>
-  </si>
-  <si>
-    <t>FID106</t>
-  </si>
-  <si>
-    <t>FID107</t>
-  </si>
-  <si>
-    <t>FID108</t>
-  </si>
-  <si>
-    <t>FID109</t>
-  </si>
-  <si>
-    <t>FID110</t>
-  </si>
-  <si>
-    <t>FID111</t>
-  </si>
-  <si>
-    <t>FID112</t>
-  </si>
-  <si>
-    <t>FID113</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+  <si>
+    <t>Student_Rollno</t>
+  </si>
+  <si>
+    <t>Student_Name</t>
+  </si>
+  <si>
+    <t>Student_Course</t>
+  </si>
+  <si>
+    <t>Student_Enrollmentno</t>
+  </si>
+  <si>
+    <t>Nitin Kumar</t>
+  </si>
+  <si>
+    <t>DE2102022</t>
+  </si>
+  <si>
+    <t>IT-2K21-404</t>
+  </si>
+  <si>
+    <t>Koham Sothari</t>
+  </si>
+  <si>
+    <t>DE2102023</t>
+  </si>
+  <si>
+    <t>DE2102024</t>
+  </si>
+  <si>
+    <t>DE2102025</t>
+  </si>
+  <si>
+    <t>DE2102026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mtech IT [5 years] </t>
+  </si>
+  <si>
+    <t>Lord Vivek</t>
+  </si>
+  <si>
+    <t>IT-2K21-403!@#$%^</t>
+  </si>
+  <si>
+    <t>IT-2K21-402!@#%</t>
+  </si>
+  <si>
+    <t>IT-2K&amp;*!21-401</t>
+  </si>
+  <si>
+    <t>IT@#%-2K21-400</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +95,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -126,13 +125,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -165,7 +167,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -177,7 +179,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -224,23 +226,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -276,23 +261,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -444,21 +412,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080D43D2-CAD2-42F8-843F-3BC53A94FB33}">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,141 +440,87 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{8296E50E-D2DF-4E10-BC58-124E80B83E0D}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{7F94E4E1-539A-430C-B304-C5767E67A13A}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{5796ECB5-FBA2-4DD3-8357-EFC495E2CB42}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Doc/student.xlsx
+++ b/Doc/student.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\Assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589DE72D-F37C-4EE0-9963-A1AEFF16D38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F01EEE-CFF4-4AA9-9AE9-988E85BE3D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>DE2102022</t>
   </si>
   <si>
-    <t>IT-2K21-404</t>
-  </si>
-  <si>
     <t>Koham Sothari</t>
   </si>
   <si>
@@ -60,25 +57,28 @@
     <t>DE2102025</t>
   </si>
   <si>
+    <t xml:space="preserve">Mtech IT [5 years] </t>
+  </si>
+  <si>
+    <t>IT-2K21-403!@#$%^</t>
+  </si>
+  <si>
+    <t>IT-2K21-402!@#%</t>
+  </si>
+  <si>
+    <t>IT-2K&amp;*!21-401</t>
+  </si>
+  <si>
+    <t>IT@#%-2K21-400</t>
+  </si>
+  <si>
+    <t>Lord Vivek</t>
+  </si>
+  <si>
     <t>DE2102026</t>
   </si>
   <si>
-    <t xml:space="preserve">Mtech IT [5 years] </t>
-  </si>
-  <si>
-    <t>Lord Vivek</t>
-  </si>
-  <si>
-    <t>IT-2K21-403!@#$%^</t>
-  </si>
-  <si>
-    <t>IT-2K21-402!@#%</t>
-  </si>
-  <si>
-    <t>IT-2K&amp;*!21-401</t>
-  </si>
-  <si>
-    <t>IT@#%-2K21-400</t>
+    <t>IT-2K21-404!@#$%^</t>
   </si>
 </sst>
 </file>
@@ -446,13 +446,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -460,58 +460,58 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
+      <c r="A6" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -520,6 +520,7 @@
     <hyperlink ref="A5" r:id="rId1" xr:uid="{8296E50E-D2DF-4E10-BC58-124E80B83E0D}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{7F94E4E1-539A-430C-B304-C5767E67A13A}"/>
     <hyperlink ref="A2" r:id="rId3" xr:uid="{5796ECB5-FBA2-4DD3-8357-EFC495E2CB42}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{C7D698D5-2196-46D7-A8B8-A6BE0495AC8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Doc/student.xlsx
+++ b/Doc/student.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\Assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F01EEE-CFF4-4AA9-9AE9-988E85BE3D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA4F819-D851-4FAE-B8F9-553F0B1AB3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25260" yWindow="2310" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>IT-2K&amp;*!21-401</t>
   </si>
   <si>
-    <t>IT@#%-2K21-400</t>
-  </si>
-  <si>
     <t>Lord Vivek</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>IT-2K21-404!@#$%^</t>
+  </si>
+  <si>
+    <t>IT@#%-2K21-__400</t>
   </si>
 </sst>
 </file>
@@ -416,21 +416,21 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,9 +444,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -458,7 +458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -472,7 +472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -486,7 +486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -500,18 +500,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
